--- a/Economica/LB 1.xlsx
+++ b/Economica/LB 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\1.1\Economica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C297CD-F865-464E-A8AF-08FEE2183FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8EE8D2-3659-4D57-8D3C-0EFC82CB9578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{40DDA834-2E99-4D45-A24C-02DD682A3CB6}"/>
+    <workbookView xWindow="3150" yWindow="630" windowWidth="21600" windowHeight="11385" xr2:uid="{40DDA834-2E99-4D45-A24C-02DD682A3CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -226,31 +250,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39614462-F0B4-4186-B8F5-373667BF94E8}" name="Таблица1" displayName="Таблица1" ref="A1:M7" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39614462-F0B4-4186-B8F5-373667BF94E8}" name="Таблица1" displayName="Таблица1" ref="A1:M7" totalsRowShown="0" dataDxfId="23">
   <autoFilter ref="A1:M7" xr:uid="{701FB5A0-ED16-48B9-AA08-7856E3D5EF0C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -283,27 +283,27 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{B1AB9E92-2877-4027-9339-B4A009C2E74E}" name="Код" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B4A07782-4AF0-4205-AFDA-3047CFD65FC2}" name="Задача" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{94BD837D-6B7E-4A19-A42E-24994F96D726}" name="Форма _x000a_завершення" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{858FACD4-064E-4B7A-A648-7B1F63C80532}" name="Кількість виконавців" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C320857D-C0A0-4EE8-A643-BFA2CF1D2911}" name="Трудомісткість, год" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{FB73E0CB-82BE-417F-B276-4DF0FF6F9DED}" name="Рівень ризику" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1A31C046-AB22-4F31-8521-C7878F69CA28}" name="Загальна трудомісткість" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{B1AB9E92-2877-4027-9339-B4A009C2E74E}" name="Код" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{B4A07782-4AF0-4205-AFDA-3047CFD65FC2}" name="Задача" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{94BD837D-6B7E-4A19-A42E-24994F96D726}" name="Форма _x000a_завершення" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{858FACD4-064E-4B7A-A648-7B1F63C80532}" name="Кількість виконавців" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{C320857D-C0A0-4EE8-A643-BFA2CF1D2911}" name="Трудомісткість, год" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{FB73E0CB-82BE-417F-B276-4DF0FF6F9DED}" name="Рівень ризику" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{1A31C046-AB22-4F31-8521-C7878F69CA28}" name="Загальна трудомісткість" dataDxfId="16">
       <calculatedColumnFormula>Таблица1[[#This Row],[Кількість виконавців]]*Таблица1[[#This Row],[Трудомісткість, год]]*(1+Таблица1[[#This Row],[Рівень ризику]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E64FCD93-FDE9-4A55-9FC4-5D9A87C494DD}" name="Оплата праці за годину" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{2B0E137C-72BD-4973-80EE-5B823BA0605A}" name="Вартість" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{E64FCD93-FDE9-4A55-9FC4-5D9A87C494DD}" name="Оплата праці за годину" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{2B0E137C-72BD-4973-80EE-5B823BA0605A}" name="Вартість" dataDxfId="14">
       <calculatedColumnFormula>Таблица1[[#This Row],[Загальна трудомісткість]]*Таблица1[[#This Row],[Оплата праці за годину]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{19B446CA-409A-4A2B-9235-B79066C46166}" name="Собівартість години" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{19B446CA-409A-4A2B-9235-B79066C46166}" name="Собівартість години" dataDxfId="13">
       <calculatedColumnFormula>Таблица1[[#This Row],[Оплата праці за годину]]*(1+Таблица1[[#This Row],[Рівень ризику]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E24A8B09-988D-4F53-958E-DF68E217B8AB}" name="Сумарна собівартість етапу" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{E24A8B09-988D-4F53-958E-DF68E217B8AB}" name="Сумарна собівартість етапу" dataDxfId="12">
       <calculatedColumnFormula>Таблица1[[#This Row],[Загальна трудомісткість]]*Таблица1[[#This Row],[Собівартість години]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3C842DA7-AB5D-4E2F-A255-DE472AE0E300}" name="Ефективність" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{ED880232-523A-4738-8CC9-F6C600DF28EC}" name="Тривалість" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{3C842DA7-AB5D-4E2F-A255-DE472AE0E300}" name="Ефективність" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{ED880232-523A-4738-8CC9-F6C600DF28EC}" name="Тривалість" dataDxfId="10">
       <calculatedColumnFormula>Таблица1[[#This Row],[Загальна трудомісткість]]*Таблица1[[#This Row],[Ефективність]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -312,17 +312,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B9B9E32-439B-4B0B-9788-CF80ED6B021C}" name="Таблица2" displayName="Таблица2" ref="B15:I19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B9B9E32-439B-4B0B-9788-CF80ED6B021C}" name="Таблица2" displayName="Таблица2" ref="B15:I19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B15:I19" xr:uid="{3DEA6E5D-2903-42C0-984A-C6FC45A5AE39}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{39C4D6B7-D1A0-412C-9283-3450D3E179CD}" name="Задача" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7F10D3CA-E629-4881-AEBB-AC5F5DE1E3DC}" name="Посада" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{0968DF5D-DB30-4485-B7E4-615671CDA62A}" name="Відсоток" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{585A64DB-1210-4F13-BFE1-25FDA55AADCF}" name="Сумарна трудомісткість" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{B536D9DE-C286-4C17-A7B7-03AB03E2318F}" name="Оплата праці за годину" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{4FD7B75B-9421-4D07-BD08-B7F1A925FBDD}" name="Вартість" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{E33C0495-9DA8-4BDE-BF64-D0EB0610DEA9}" name="Собівартість години" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{C70362AD-9E84-4CEA-BE29-4531BA705A1F}" name="Сумарна собівартість" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{39C4D6B7-D1A0-412C-9283-3450D3E179CD}" name="Задача" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7F10D3CA-E629-4881-AEBB-AC5F5DE1E3DC}" name="Посада" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0968DF5D-DB30-4485-B7E4-615671CDA62A}" name="Відсоток" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{585A64DB-1210-4F13-BFE1-25FDA55AADCF}" name="Сумарна трудомісткість" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B536D9DE-C286-4C17-A7B7-03AB03E2318F}" name="Оплата праці за годину" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{4FD7B75B-9421-4D07-BD08-B7F1A925FBDD}" name="Вартість" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{E33C0495-9DA8-4BDE-BF64-D0EB0610DEA9}" name="Собівартість години" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C70362AD-9E84-4CEA-BE29-4531BA705A1F}" name="Сумарна собівартість" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C88E0A6-FCD6-464E-8E77-5905CBC293A7}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,15 +1113,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BF838C-A1FE-48DE-A5FD-F12025D6D9F3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>6183.6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>994260</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1147,8 +1147,12 @@
         <f>SUM(Таблица1[Сумарна собівартість етапу])+SUM(Таблица2[Сумарна собівартість])</f>
         <v>748320</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f>D3/900</f>
+        <v>831.4666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>4033.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
